--- a/2018/tp_2014.xlsx
+++ b/2018/tp_2014.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ESB13240/Dropbox/Social/VoteSimulator/2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382E3F00-52B0-5541-B566-469491F3E899}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F172AF7D-DDF9-1B41-A464-7EE2C8FEAB57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
   <si>
     <t>age</t>
   </si>
@@ -83,7 +84,7 @@
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;－&quot;"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +156,26 @@
       <name val="Heiti TC"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -234,7 +255,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -258,6 +279,8 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -563,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53757CF7-F919-D348-95ED-1D39B715DD09}">
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AH47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D14"/>
+      <selection activeCell="F2" sqref="F2:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -575,12 +598,14 @@
     <col min="2" max="2" width="5.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,8 +660,26 @@
       <c r="S1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="T1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -701,9 +744,29 @@
         <f t="shared" si="1"/>
         <v>35315.343040000007</v>
       </c>
-      <c r="T2" s="4"/>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="T2">
+        <v>0.67</v>
+      </c>
+      <c r="U2">
+        <v>0.19</v>
+      </c>
+      <c r="V2">
+        <v>0.06</v>
+      </c>
+      <c r="W2" s="4">
+        <f>T2*$G2</f>
+        <v>141684.31040000002</v>
+      </c>
+      <c r="X2" s="4">
+        <f t="shared" ref="X2:X14" si="2">U2*$G2</f>
+        <v>40179.132800000007</v>
+      </c>
+      <c r="Y2" s="4">
+        <f t="shared" ref="Y2:Y14" si="3">V2*$G2</f>
+        <v>12688.147200000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -721,7 +784,7 @@
         <v>0.68</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G14" si="2">F3*E3</f>
+        <f t="shared" ref="G3:G14" si="4">F3*E3</f>
         <v>0</v>
       </c>
       <c r="H3">
@@ -734,7 +797,7 @@
         <v>22.9</v>
       </c>
       <c r="K3" s="4">
-        <f t="shared" ref="K3:K14" si="3">H3*$G3/100</f>
+        <f t="shared" ref="K3:K14" si="5">H3*$G3/100</f>
         <v>0</v>
       </c>
       <c r="L3" s="4">
@@ -755,7 +818,7 @@
         <v>0.16700000000000001</v>
       </c>
       <c r="Q3" s="4">
-        <f t="shared" ref="Q3:Q14" si="4">N3*$G3</f>
+        <f t="shared" ref="Q3:Q14" si="6">N3*$G3</f>
         <v>0</v>
       </c>
       <c r="R3" s="4">
@@ -766,8 +829,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="W3" s="4">
+        <f t="shared" ref="W3:W14" si="7">T3*$G3</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -787,7 +862,7 @@
         <v>0.78</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>355498.26</v>
       </c>
       <c r="H4">
@@ -800,7 +875,7 @@
         <v>21.9</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>217209.43686000002</v>
       </c>
       <c r="L4" s="4">
@@ -821,7 +896,7 @@
         <v>0.23899999999999999</v>
       </c>
       <c r="Q4" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>194457.54822000003</v>
       </c>
       <c r="R4" s="4">
@@ -832,8 +907,29 @@
         <f t="shared" si="1"/>
         <v>84964.084139999992</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="T4">
+        <v>0.52</v>
+      </c>
+      <c r="U4">
+        <v>0.26</v>
+      </c>
+      <c r="V4">
+        <v>0.16</v>
+      </c>
+      <c r="W4" s="4">
+        <f t="shared" si="7"/>
+        <v>184859.09520000001</v>
+      </c>
+      <c r="X4" s="4">
+        <f t="shared" si="2"/>
+        <v>92429.547600000005</v>
+      </c>
+      <c r="Y4" s="4">
+        <f t="shared" si="3"/>
+        <v>56879.721600000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1">
         <v>7</v>
       </c>
@@ -850,7 +946,7 @@
         <v>0.78</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H5">
@@ -863,7 +959,7 @@
         <v>21.9</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L5" s="4">
@@ -884,7 +980,7 @@
         <v>0.23899999999999999</v>
       </c>
       <c r="Q5" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R5" s="4">
@@ -895,8 +991,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="W5" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1">
         <v>9</v>
       </c>
@@ -916,7 +1024,7 @@
         <v>0.89</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>370716.15</v>
       </c>
       <c r="H6">
@@ -929,7 +1037,7 @@
         <v>24.1</v>
       </c>
       <c r="K6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>208342.47630000004</v>
       </c>
       <c r="L6" s="4">
@@ -950,7 +1058,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="Q6" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>150510.75690000001</v>
       </c>
       <c r="R6" s="4">
@@ -961,8 +1069,29 @@
         <f t="shared" si="1"/>
         <v>101946.94125000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="T6">
+        <v>0.45</v>
+      </c>
+      <c r="U6">
+        <v>0.36</v>
+      </c>
+      <c r="V6">
+        <v>0.15</v>
+      </c>
+      <c r="W6" s="4">
+        <f t="shared" si="7"/>
+        <v>166822.26750000002</v>
+      </c>
+      <c r="X6" s="4">
+        <f t="shared" si="2"/>
+        <v>133457.81400000001</v>
+      </c>
+      <c r="Y6" s="4">
+        <f t="shared" si="3"/>
+        <v>55607.422500000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1">
         <v>11</v>
       </c>
@@ -979,7 +1108,7 @@
         <v>0.89</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H7">
@@ -992,7 +1121,7 @@
         <v>24.1</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L7" s="4">
@@ -1013,7 +1142,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="Q7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R7" s="4">
@@ -1024,8 +1153,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="W7" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1">
         <v>13</v>
       </c>
@@ -1045,7 +1186,7 @@
         <v>0.89</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>371539.4</v>
       </c>
       <c r="H8">
@@ -1058,7 +1199,7 @@
         <v>27.5</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>212520.53680000003</v>
       </c>
       <c r="L8" s="4">
@@ -1079,7 +1220,7 @@
         <v>0.29199999999999998</v>
       </c>
       <c r="Q8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>148987.29940000002</v>
       </c>
       <c r="R8" s="4">
@@ -1090,8 +1231,29 @@
         <f t="shared" si="1"/>
         <v>108489.5048</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="T8">
+        <v>0.36</v>
+      </c>
+      <c r="U8">
+        <v>0.4</v>
+      </c>
+      <c r="V8">
+        <v>0.21</v>
+      </c>
+      <c r="W8" s="4">
+        <f t="shared" si="7"/>
+        <v>133754.18400000001</v>
+      </c>
+      <c r="X8" s="4">
+        <f t="shared" si="2"/>
+        <v>148615.76</v>
+      </c>
+      <c r="Y8" s="4">
+        <f t="shared" si="3"/>
+        <v>78023.274000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1">
         <v>15</v>
       </c>
@@ -1108,7 +1270,7 @@
         <v>0.89</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H9">
@@ -1121,7 +1283,7 @@
         <v>27.5</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L9" s="4">
@@ -1142,7 +1304,7 @@
         <v>0.29199999999999998</v>
       </c>
       <c r="Q9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R9" s="4">
@@ -1153,8 +1315,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="W9" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1">
         <v>17</v>
       </c>
@@ -1174,7 +1348,7 @@
         <v>0.9</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>278081.10000000003</v>
       </c>
       <c r="H10">
@@ -1187,7 +1361,7 @@
         <v>32.299999999999997</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>130976.19810000002</v>
       </c>
       <c r="L10" s="4">
@@ -1208,7 +1382,7 @@
         <v>0.221</v>
       </c>
       <c r="Q10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>105948.89910000001</v>
       </c>
       <c r="R10" s="4">
@@ -1219,8 +1393,29 @@
         <f t="shared" si="1"/>
         <v>61455.923100000007</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="T10">
+        <v>0.32</v>
+      </c>
+      <c r="U10">
+        <v>0.35</v>
+      </c>
+      <c r="V10">
+        <v>0.3</v>
+      </c>
+      <c r="W10" s="4">
+        <f t="shared" si="7"/>
+        <v>88985.952000000019</v>
+      </c>
+      <c r="X10" s="4">
+        <f t="shared" si="2"/>
+        <v>97328.385000000009</v>
+      </c>
+      <c r="Y10" s="4">
+        <f t="shared" si="3"/>
+        <v>83424.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1">
         <v>19</v>
       </c>
@@ -1237,7 +1432,7 @@
         <v>0.9</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H11">
@@ -1250,7 +1445,7 @@
         <v>32.299999999999997</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L11" s="4">
@@ -1271,7 +1466,7 @@
         <v>0.221</v>
       </c>
       <c r="Q11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R11" s="4">
@@ -1282,8 +1477,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="W11" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="1">
         <v>21</v>
       </c>
@@ -1303,7 +1510,7 @@
         <v>0.9</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>233739.9</v>
       </c>
       <c r="H12">
@@ -1316,7 +1523,7 @@
         <v>42.9</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>89288.641799999998</v>
       </c>
       <c r="L12" s="4">
@@ -1337,7 +1544,7 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="Q12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>65914.651799999992</v>
       </c>
       <c r="R12" s="4">
@@ -1348,8 +1555,29 @@
         <f t="shared" si="1"/>
         <v>79939.045800000007</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="T12">
+        <v>0.32</v>
+      </c>
+      <c r="U12">
+        <v>0.35</v>
+      </c>
+      <c r="V12">
+        <v>0.3</v>
+      </c>
+      <c r="W12" s="4">
+        <f t="shared" si="7"/>
+        <v>74796.767999999996</v>
+      </c>
+      <c r="X12" s="4">
+        <f t="shared" si="2"/>
+        <v>81808.964999999997</v>
+      </c>
+      <c r="Y12" s="4">
+        <f t="shared" si="3"/>
+        <v>70121.97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="1">
         <v>23</v>
       </c>
@@ -1369,7 +1597,7 @@
         <v>0.9</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H13">
@@ -1382,7 +1610,7 @@
         <v>42.9</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L13" s="4">
@@ -1403,7 +1631,7 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="Q13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R13" s="4">
@@ -1414,8 +1642,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="W13" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="1">
         <v>25</v>
       </c>
@@ -1435,7 +1675,7 @@
         <v>0.9</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H14">
@@ -1448,7 +1688,7 @@
         <v>42.9</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L14" s="4">
@@ -1469,7 +1709,7 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="Q14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R14" s="4">
@@ -1480,14 +1720,26 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" s="3" customFormat="1">
+      <c r="W14" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="3" customFormat="1">
       <c r="C15" s="3">
-        <f t="shared" ref="C15:D15" si="5">SUM(C2:C14)</f>
+        <f t="shared" ref="C15:D15" si="8">SUM(C2:C14)</f>
         <v>1018936</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1150500</v>
       </c>
       <c r="E15" s="3">
@@ -1507,11 +1759,11 @@
         <v>0.52534176408363753</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" ref="I15:J15" si="6">L15/$G15</f>
+        <f t="shared" ref="I15:J15" si="9">L15/$G15</f>
         <v>0.19575717339778839</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.27890106251857416</v>
       </c>
       <c r="K15" s="7">
@@ -1519,11 +1771,11 @@
         <v>956670.43066000019</v>
       </c>
       <c r="L15" s="7">
-        <f t="shared" ref="L15:M15" si="7">SUM(L2:L14)</f>
+        <f t="shared" ref="L15:M15" si="10">SUM(L2:L14)</f>
         <v>356482.41237000003</v>
       </c>
       <c r="M15" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>507891.08697000006</v>
       </c>
       <c r="N15" s="6">
@@ -1531,11 +1783,11 @@
         <v>0.42810034900146532</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" ref="O15:P15" si="8">R15/$G15</f>
+        <f t="shared" ref="O15:P15" si="11">R15/$G15</f>
         <v>0.30496648734333387</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.25925285730476583</v>
       </c>
       <c r="Q15" s="7">
@@ -1543,17 +1795,41 @@
         <v>779589.5419800001</v>
       </c>
       <c r="R15" s="7">
-        <f t="shared" ref="R15:S15" si="9">SUM(R2:R14)</f>
+        <f t="shared" ref="R15:S15" si="12">SUM(R2:R14)</f>
         <v>555357.37063000002</v>
       </c>
       <c r="S15" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>472110.84213000006</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="W15" s="7">
+        <f>SUM(W2:W14)</f>
+        <v>790902.57710000023</v>
+      </c>
+      <c r="X15" s="7">
+        <f t="shared" ref="X15:Y15" si="13">SUM(X2:X14)</f>
+        <v>593819.60440000007</v>
+      </c>
+      <c r="Y15" s="7">
+        <f>SUM(Y2:Y14)</f>
+        <v>356744.86530000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="N16" t="s">
         <v>10</v>
+      </c>
+      <c r="W16" s="5">
+        <f>W15/$E15</f>
+        <v>0.36456598724276734</v>
+      </c>
+      <c r="X16" s="5">
+        <f t="shared" ref="X16:Y16" si="14">X15/$E15</f>
+        <v>0.27372072944304421</v>
+      </c>
+      <c r="Y16" s="5">
+        <f t="shared" si="14"/>
+        <v>0.16444129501861315</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -1563,6 +1839,87 @@
       <c r="F18" s="3">
         <v>2146939</v>
       </c>
+      <c r="K18" s="10">
+        <v>150084</v>
+      </c>
+      <c r="L18" s="10">
+        <v>151655</v>
+      </c>
+      <c r="M18" s="10">
+        <v>159329</v>
+      </c>
+      <c r="N18" s="10">
+        <v>223964</v>
+      </c>
+      <c r="O18" s="10">
+        <v>231803</v>
+      </c>
+      <c r="P18" s="10">
+        <v>207951</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>208584</v>
+      </c>
+      <c r="R18" s="10">
+        <v>210733</v>
+      </c>
+      <c r="S18" s="10">
+        <v>206727</v>
+      </c>
+      <c r="T18" s="10">
+        <v>188163</v>
+      </c>
+      <c r="U18" s="10">
+        <v>120816</v>
+      </c>
+      <c r="V18" s="10">
+        <v>90105</v>
+      </c>
+      <c r="W18" s="10">
+        <v>67536</v>
+      </c>
+      <c r="X18" s="10">
+        <v>50074</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>34009</v>
+      </c>
+      <c r="Z18" s="10">
+        <v>14049</v>
+      </c>
+      <c r="AA18" s="10">
+        <v>3192</v>
+      </c>
+      <c r="AB18">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="K19" s="10">
+        <f>SUM(K18:L18)</f>
+        <v>301739</v>
+      </c>
+      <c r="M19" s="10">
+        <f>SUM(M18:N18)</f>
+        <v>383293</v>
+      </c>
+      <c r="O19" s="10">
+        <f>SUM(O18:P18)</f>
+        <v>439754</v>
+      </c>
+      <c r="Q19" s="10">
+        <f>SUM(Q18:R18)</f>
+        <v>419317</v>
+      </c>
+      <c r="S19" s="10">
+        <f>SUM(S18:T18)</f>
+        <v>394890</v>
+      </c>
+      <c r="U19" s="10">
+        <f>SUM(U18:AB18)</f>
+        <v>380527</v>
+      </c>
+      <c r="W19" s="10"/>
     </row>
     <row r="20" spans="1:31" ht="17">
       <c r="F20" s="18">
@@ -1571,6 +1928,24 @@
       <c r="G20" s="18">
         <v>2146939</v>
       </c>
+      <c r="K20">
+        <v>301739</v>
+      </c>
+      <c r="L20">
+        <v>383293</v>
+      </c>
+      <c r="M20">
+        <v>439754</v>
+      </c>
+      <c r="N20">
+        <v>419317</v>
+      </c>
+      <c r="O20">
+        <v>394890</v>
+      </c>
+      <c r="P20">
+        <v>380527</v>
+      </c>
     </row>
     <row r="21" spans="1:31">
       <c r="A21">
@@ -1584,11 +1959,11 @@
         <v>113770.38656000001</v>
       </c>
       <c r="R21" s="4">
-        <f t="shared" ref="R21:S21" si="10">SUM(R2:R3)</f>
+        <f t="shared" ref="R21:S21" si="15">SUM(R2:R3)</f>
         <v>62383.390400000004</v>
       </c>
       <c r="S21" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>35315.343040000007</v>
       </c>
     </row>
@@ -1604,11 +1979,11 @@
         <v>194457.54822000003</v>
       </c>
       <c r="R22" s="4">
-        <f t="shared" ref="R22:S22" si="11">SUM(R4:R5)</f>
+        <f t="shared" ref="R22:S22" si="16">SUM(R4:R5)</f>
         <v>65056.181579999997</v>
       </c>
       <c r="S22" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>84964.084139999992</v>
       </c>
     </row>
@@ -1624,11 +1999,11 @@
         <v>150510.75690000001</v>
       </c>
       <c r="R23" s="4">
-        <f t="shared" ref="R23:S23" si="12">SUM(R6:R7)</f>
+        <f t="shared" ref="R23:S23" si="17">SUM(R6:R7)</f>
         <v>115292.72265000001</v>
       </c>
       <c r="S23" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>101946.94125000002</v>
       </c>
     </row>
@@ -1644,11 +2019,11 @@
         <v>148987.29940000002</v>
       </c>
       <c r="R24" s="4">
-        <f t="shared" ref="R24:S24" si="13">SUM(R8:R9)</f>
+        <f t="shared" ref="R24:S24" si="18">SUM(R8:R9)</f>
         <v>114062.59580000001</v>
       </c>
       <c r="S24" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>108489.5048</v>
       </c>
     </row>
@@ -1664,11 +2039,11 @@
         <v>105948.89910000001</v>
       </c>
       <c r="R25" s="4">
-        <f t="shared" ref="R25:S25" si="14">SUM(R10:R11)</f>
+        <f t="shared" ref="R25:S25" si="19">SUM(R10:R11)</f>
         <v>110676.27780000003</v>
       </c>
       <c r="S25" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>61455.923100000007</v>
       </c>
     </row>
@@ -1684,11 +2059,11 @@
         <v>65914.651799999992</v>
       </c>
       <c r="R26" s="4">
-        <f t="shared" ref="R26:S26" si="15">SUM(R12:R14)</f>
+        <f t="shared" ref="R26:S26" si="20">SUM(R12:R14)</f>
         <v>87886.202399999995</v>
       </c>
       <c r="S26" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>79939.045800000007</v>
       </c>
     </row>
@@ -1698,11 +2073,11 @@
         <v>779589.5419800001</v>
       </c>
       <c r="R27" s="4">
-        <f t="shared" ref="R27:S27" si="16">SUM(R21:R26)</f>
+        <f t="shared" ref="R27:S27" si="21">SUM(R21:R26)</f>
         <v>555357.37063000002</v>
       </c>
       <c r="S27" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>472110.84213000006</v>
       </c>
     </row>
@@ -1715,8 +2090,18 @@
       </c>
     </row>
     <row r="30" spans="1:31" ht="16">
+      <c r="C30">
+        <v>301739</v>
+      </c>
+      <c r="D30" s="10">
+        <f>E30-C30</f>
+        <v>894</v>
+      </c>
       <c r="E30">
         <v>302633</v>
+      </c>
+      <c r="F30" s="10">
+        <v>312013</v>
       </c>
       <c r="G30" s="10">
         <f>SUM(J30:J31)</f>
@@ -1798,11 +2183,21 @@
       </c>
     </row>
     <row r="31" spans="1:31" ht="16">
+      <c r="C31">
+        <v>383293</v>
+      </c>
+      <c r="D31" s="10">
+        <f t="shared" ref="D31:D35" si="22">E31-C31</f>
+        <v>1056</v>
+      </c>
       <c r="E31">
         <v>384349</v>
       </c>
+      <c r="F31" s="10">
+        <v>453657</v>
+      </c>
       <c r="H31">
-        <f t="shared" ref="H31:H46" si="17">I31*F3</f>
+        <f t="shared" ref="H31:H46" si="23">I31*F3</f>
         <v>109023.04000000001</v>
       </c>
       <c r="I31" s="8">
@@ -1812,7 +2207,7 @@
         <v>160328</v>
       </c>
       <c r="K31" s="8">
-        <f t="shared" ref="K31:K43" si="18">J31*F3</f>
+        <f t="shared" ref="K31:K43" si="24">J31*F3</f>
         <v>109023.04000000001</v>
       </c>
       <c r="O31" s="12">
@@ -1868,15 +2263,25 @@
       </c>
     </row>
     <row r="32" spans="1:31" ht="16">
+      <c r="C32">
+        <v>439754</v>
+      </c>
+      <c r="D32" s="10">
+        <f t="shared" si="22"/>
+        <v>-1448</v>
+      </c>
       <c r="E32">
         <v>438306</v>
+      </c>
+      <c r="F32" s="10">
+        <v>417882</v>
       </c>
       <c r="G32" s="10">
         <f>SUM(J32:J33)</f>
         <v>453657</v>
       </c>
       <c r="H32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>174736.38</v>
       </c>
       <c r="I32" s="8">
@@ -1886,7 +2291,7 @@
         <v>224021</v>
       </c>
       <c r="K32" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>174736.38</v>
       </c>
       <c r="L32" s="8">
@@ -1910,12 +2315,22 @@
         <v>455767</v>
       </c>
     </row>
-    <row r="33" spans="5:34" ht="16">
+    <row r="33" spans="3:34" ht="16">
+      <c r="C33">
+        <v>419317</v>
+      </c>
+      <c r="D33" s="10">
+        <f t="shared" si="22"/>
+        <v>478</v>
+      </c>
       <c r="E33">
         <v>419795</v>
       </c>
+      <c r="F33" s="10">
+        <v>417600</v>
+      </c>
       <c r="H33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>179116.08000000002</v>
       </c>
       <c r="I33" s="8">
@@ -1925,7 +2340,7 @@
         <v>229636</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>179116.08000000002</v>
       </c>
       <c r="N33" s="11">
@@ -1938,16 +2353,26 @@
         <v>231803</v>
       </c>
     </row>
-    <row r="34" spans="5:34" ht="16">
+    <row r="34" spans="3:34" ht="16">
+      <c r="C34">
+        <v>394890</v>
+      </c>
+      <c r="D34" s="10">
+        <f t="shared" si="22"/>
+        <v>-1423</v>
+      </c>
       <c r="E34">
         <v>393467</v>
+      </c>
+      <c r="F34" s="10">
+        <v>304742</v>
       </c>
       <c r="G34" s="10">
         <f>SUM(J34:J35)</f>
         <v>417882</v>
       </c>
       <c r="H34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>185716.3</v>
       </c>
       <c r="I34" s="8">
@@ -1957,7 +2382,7 @@
         <v>208670</v>
       </c>
       <c r="K34" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>185716.3</v>
       </c>
       <c r="L34" s="8">
@@ -2032,12 +2457,22 @@
         <v>746</v>
       </c>
     </row>
-    <row r="35" spans="5:34" ht="16">
+    <row r="35" spans="3:34" ht="16">
+      <c r="C35">
+        <v>380527</v>
+      </c>
+      <c r="D35" s="10">
+        <f t="shared" si="22"/>
+        <v>-4282</v>
+      </c>
       <c r="E35">
         <v>376245</v>
       </c>
+      <c r="F35" s="10">
+        <v>258699</v>
+      </c>
       <c r="H35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>186198.68</v>
       </c>
       <c r="I35" s="8">
@@ -2047,7 +2482,7 @@
         <v>209212</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>186198.68</v>
       </c>
       <c r="N35" s="11">
@@ -2060,13 +2495,18 @@
         <v>208584</v>
       </c>
     </row>
-    <row r="36" spans="5:34" ht="16">
+    <row r="36" spans="3:34" ht="16">
+      <c r="D36" s="10"/>
+      <c r="E36">
+        <f>SUM(E30:E35)</f>
+        <v>2314795</v>
+      </c>
       <c r="G36" s="10">
         <f>SUM(J36:J37)</f>
         <v>417600</v>
       </c>
       <c r="H36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>187418.87</v>
       </c>
       <c r="I36" s="8">
@@ -2076,7 +2516,7 @@
         <v>210583</v>
       </c>
       <c r="K36" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>187418.87</v>
       </c>
       <c r="L36" s="8">
@@ -2100,9 +2540,10 @@
         <v>417460</v>
       </c>
     </row>
-    <row r="37" spans="5:34" ht="16">
+    <row r="37" spans="3:34" ht="16">
+      <c r="D37" s="10"/>
       <c r="H37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>184245.13</v>
       </c>
       <c r="I37" s="8">
@@ -2112,7 +2553,7 @@
         <v>207017</v>
       </c>
       <c r="K37" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>184245.13</v>
       </c>
       <c r="N37" s="11">
@@ -2125,13 +2566,14 @@
         <v>206727</v>
       </c>
     </row>
-    <row r="38" spans="5:34" ht="16">
+    <row r="38" spans="3:34" ht="16">
+      <c r="D38" s="10"/>
       <c r="G38" s="10">
         <f>SUM(J38:J39)</f>
         <v>304742</v>
       </c>
       <c r="H38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>167805</v>
       </c>
       <c r="I38" s="8">
@@ -2141,7 +2583,7 @@
         <v>186450</v>
       </c>
       <c r="K38" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>167805</v>
       </c>
       <c r="L38" s="8">
@@ -2159,9 +2601,10 @@
         <v>308979</v>
       </c>
     </row>
-    <row r="39" spans="5:34" ht="16">
+    <row r="39" spans="3:34" ht="16">
+      <c r="D39" s="10"/>
       <c r="H39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>106462.8</v>
       </c>
       <c r="I39" s="8">
@@ -2171,20 +2614,21 @@
         <v>118292</v>
       </c>
       <c r="K39" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>106462.8</v>
       </c>
       <c r="P39" s="15">
         <v>120816</v>
       </c>
     </row>
-    <row r="40" spans="5:34" ht="16">
+    <row r="40" spans="3:34" ht="16">
+      <c r="D40" s="10"/>
       <c r="G40" s="10">
         <f>SUM(I40:I46)</f>
         <v>258699</v>
       </c>
       <c r="H40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>81146.7</v>
       </c>
       <c r="I40" s="8">
@@ -2194,7 +2638,7 @@
         <v>90163</v>
       </c>
       <c r="K40" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>81146.7</v>
       </c>
       <c r="L40" s="8">
@@ -2212,9 +2656,10 @@
         <v>259711</v>
       </c>
     </row>
-    <row r="41" spans="5:34" ht="16">
+    <row r="41" spans="3:34" ht="16">
+      <c r="D41" s="10"/>
       <c r="H41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>60407.1</v>
       </c>
       <c r="I41" s="8">
@@ -2224,16 +2669,17 @@
         <v>67119</v>
       </c>
       <c r="K41" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>60407.1</v>
       </c>
       <c r="P41" s="15">
         <v>67536</v>
       </c>
     </row>
-    <row r="42" spans="5:34" ht="16">
+    <row r="42" spans="3:34" ht="16">
+      <c r="D42" s="10"/>
       <c r="H42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>44999.1</v>
       </c>
       <c r="I42" s="8">
@@ -2243,7 +2689,7 @@
         <v>49999</v>
       </c>
       <c r="K42" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>44999.1</v>
       </c>
       <c r="L42" s="8"/>
@@ -2251,9 +2697,10 @@
         <v>50074</v>
       </c>
     </row>
-    <row r="43" spans="5:34" ht="16">
+    <row r="43" spans="3:34" ht="16">
+      <c r="D43" s="10"/>
       <c r="H43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>28246.110161581171</v>
       </c>
       <c r="I43" s="8">
@@ -2264,16 +2711,17 @@
         <v>51418</v>
       </c>
       <c r="K43" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>43160.727854032113</v>
       </c>
       <c r="P43" s="16">
         <v>34009</v>
       </c>
     </row>
-    <row r="44" spans="5:34" ht="16">
+    <row r="44" spans="3:34" ht="16">
+      <c r="D44" s="10"/>
       <c r="H44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I44" s="8">
@@ -2283,9 +2731,10 @@
         <v>14049</v>
       </c>
     </row>
-    <row r="45" spans="5:34" ht="16">
+    <row r="45" spans="3:34" ht="16">
+      <c r="D45" s="10"/>
       <c r="H45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I45" s="8">
@@ -2295,9 +2744,10 @@
         <v>3192</v>
       </c>
     </row>
-    <row r="46" spans="5:34" ht="16">
+    <row r="46" spans="3:34" ht="16">
+      <c r="D46" s="10"/>
       <c r="H46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1601616494</v>
       </c>
       <c r="I46" s="9">
@@ -2305,6 +2755,12 @@
       </c>
       <c r="P46" s="17">
         <v>746</v>
+      </c>
+    </row>
+    <row r="47" spans="3:34">
+      <c r="I47" s="10">
+        <f>SUM(I30:I46)</f>
+        <v>2164593</v>
       </c>
     </row>
   </sheetData>
@@ -4061,4 +4517,358 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4DAAA7-396C-F747-ACED-50F5E614326C}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16">
+      <c r="A1" s="19">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20">
+        <v>20</v>
+      </c>
+      <c r="C1" s="20">
+        <v>75112</v>
+      </c>
+      <c r="D1" s="20">
+        <v>70544</v>
+      </c>
+      <c r="E1" s="20">
+        <v>63.2</v>
+      </c>
+      <c r="F1" s="20">
+        <v>66.5</v>
+      </c>
+      <c r="G1" s="20">
+        <v>47470.784</v>
+      </c>
+      <c r="H1" s="20">
+        <v>46911.76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16">
+      <c r="A2" s="19">
+        <v>3</v>
+      </c>
+      <c r="B2" s="20">
+        <v>25</v>
+      </c>
+      <c r="C2" s="20">
+        <v>77563</v>
+      </c>
+      <c r="D2" s="20">
+        <v>75878</v>
+      </c>
+      <c r="E2" s="20">
+        <v>61.4</v>
+      </c>
+      <c r="F2" s="20">
+        <v>63.5</v>
+      </c>
+      <c r="G2" s="20">
+        <v>47623.682000000001</v>
+      </c>
+      <c r="H2" s="20">
+        <v>48182.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16">
+      <c r="A3" s="19">
+        <v>5</v>
+      </c>
+      <c r="B3" s="20">
+        <v>30</v>
+      </c>
+      <c r="C3" s="20">
+        <v>85936</v>
+      </c>
+      <c r="D3" s="20">
+        <v>96102</v>
+      </c>
+      <c r="E3" s="20">
+        <v>60.5</v>
+      </c>
+      <c r="F3" s="20">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="G3" s="20">
+        <v>51991.28</v>
+      </c>
+      <c r="H3" s="20">
+        <v>63523.421999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16">
+      <c r="A4" s="19">
+        <v>7</v>
+      </c>
+      <c r="B4" s="20">
+        <v>35</v>
+      </c>
+      <c r="C4" s="20">
+        <v>110995</v>
+      </c>
+      <c r="D4" s="20">
+        <v>125472</v>
+      </c>
+      <c r="E4" s="20">
+        <v>63.2</v>
+      </c>
+      <c r="F4" s="20">
+        <v>64.5</v>
+      </c>
+      <c r="G4" s="20">
+        <v>70148.84</v>
+      </c>
+      <c r="H4" s="20">
+        <v>80929.440000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16">
+      <c r="A5" s="19">
+        <v>9</v>
+      </c>
+      <c r="B5" s="20">
+        <v>40</v>
+      </c>
+      <c r="C5" s="20">
+        <v>99979</v>
+      </c>
+      <c r="D5" s="20">
+        <v>114473</v>
+      </c>
+      <c r="E5" s="20">
+        <v>59.7</v>
+      </c>
+      <c r="F5" s="20">
+        <v>63.6</v>
+      </c>
+      <c r="G5" s="20">
+        <v>59687.463000000003</v>
+      </c>
+      <c r="H5" s="20">
+        <v>72804.827999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16">
+      <c r="A6" s="19">
+        <v>11</v>
+      </c>
+      <c r="B6" s="20">
+        <v>45</v>
+      </c>
+      <c r="C6" s="20">
+        <v>92548</v>
+      </c>
+      <c r="D6" s="20">
+        <v>107549</v>
+      </c>
+      <c r="E6" s="20">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="F6" s="20">
+        <v>71.2</v>
+      </c>
+      <c r="G6" s="20">
+        <v>59786.008000000002</v>
+      </c>
+      <c r="H6" s="20">
+        <v>76574.888000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16">
+      <c r="A7" s="19">
+        <v>13</v>
+      </c>
+      <c r="B7" s="20">
+        <v>50</v>
+      </c>
+      <c r="C7" s="20">
+        <v>92256</v>
+      </c>
+      <c r="D7" s="20">
+        <v>106787</v>
+      </c>
+      <c r="E7" s="20">
+        <v>62.7</v>
+      </c>
+      <c r="F7" s="20">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="G7" s="20">
+        <v>57844.512000000002</v>
+      </c>
+      <c r="H7" s="20">
+        <v>77847.722999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16">
+      <c r="A8" s="19">
+        <v>15</v>
+      </c>
+      <c r="B8" s="20">
+        <v>55</v>
+      </c>
+      <c r="C8" s="20">
+        <v>92784</v>
+      </c>
+      <c r="D8" s="20">
+        <v>107688</v>
+      </c>
+      <c r="E8" s="20">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="F8" s="20">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="G8" s="20">
+        <v>64856.016000000003</v>
+      </c>
+      <c r="H8" s="20">
+        <v>79258.368000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16">
+      <c r="A9" s="19">
+        <v>17</v>
+      </c>
+      <c r="B9" s="20">
+        <v>60</v>
+      </c>
+      <c r="C9" s="20">
+        <v>90161</v>
+      </c>
+      <c r="D9" s="20">
+        <v>104362</v>
+      </c>
+      <c r="E9" s="20">
+        <v>76.2</v>
+      </c>
+      <c r="F9" s="20">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="G9" s="20">
+        <v>68702.682000000001</v>
+      </c>
+      <c r="H9" s="20">
+        <v>79419.482000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16">
+      <c r="A10" s="19">
+        <v>19</v>
+      </c>
+      <c r="B10" s="20">
+        <v>65</v>
+      </c>
+      <c r="C10" s="20">
+        <v>78113</v>
+      </c>
+      <c r="D10" s="20">
+        <v>92385</v>
+      </c>
+      <c r="E10" s="20">
+        <v>78.5</v>
+      </c>
+      <c r="F10" s="20">
+        <v>77.7</v>
+      </c>
+      <c r="G10" s="20">
+        <v>61318.705000000002</v>
+      </c>
+      <c r="H10" s="20">
+        <v>71783.145000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16">
+      <c r="A11" s="19">
+        <v>21</v>
+      </c>
+      <c r="B11" s="20">
+        <v>70</v>
+      </c>
+      <c r="C11" s="20">
+        <v>44243</v>
+      </c>
+      <c r="D11" s="20">
+        <v>53456</v>
+      </c>
+      <c r="E11" s="20">
+        <v>81</v>
+      </c>
+      <c r="F11" s="20">
+        <v>80.7</v>
+      </c>
+      <c r="G11" s="20">
+        <v>35836.83</v>
+      </c>
+      <c r="H11" s="20">
+        <v>43138.991999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16">
+      <c r="A12" s="19">
+        <v>23</v>
+      </c>
+      <c r="B12" s="20">
+        <v>75</v>
+      </c>
+      <c r="C12" s="20">
+        <v>32947</v>
+      </c>
+      <c r="D12" s="20">
+        <v>43929</v>
+      </c>
+      <c r="E12" s="20">
+        <v>75.7</v>
+      </c>
+      <c r="F12" s="20">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="G12" s="20">
+        <v>24940.879000000001</v>
+      </c>
+      <c r="H12" s="20">
+        <v>32331.743999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16">
+      <c r="A13" s="19">
+        <v>25</v>
+      </c>
+      <c r="B13" s="20">
+        <v>80</v>
+      </c>
+      <c r="C13" s="20">
+        <v>46969</v>
+      </c>
+      <c r="D13" s="20">
+        <v>60717</v>
+      </c>
+      <c r="E13" s="20">
+        <v>66.2</v>
+      </c>
+      <c r="F13" s="20">
+        <v>56.5</v>
+      </c>
+      <c r="G13" s="20">
+        <v>31093.477999999999</v>
+      </c>
+      <c r="H13" s="20">
+        <v>34305.105000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>